--- a/forms/Form-3AA-multiple.xlsx
+++ b/forms/Form-3AA-multiple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E489C804-F26F-4B7A-BCE2-CB745DDBD9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60407FE-FDD0-4CDB-BBD6-EED7CA2059C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -48,9 +48,6 @@
     <t>Full name</t>
   </si>
   <si>
-    <t>e-mail</t>
-  </si>
-  <si>
     <t>Organization</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Submission information</t>
   </si>
   <si>
-    <t>Finalization date</t>
-  </si>
-  <si>
     <t>Submission date</t>
   </si>
   <si>
@@ -145,6 +139,12 @@
   </si>
   <si>
     <t>Month</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Finalisation date</t>
   </si>
 </sst>
 </file>
@@ -760,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -984,6 +984,24 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1040,30 +1058,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1425,39 +1419,39 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
+      <c r="B2" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="32"/>
       <c r="C4" s="33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" s="37"/>
     </row>
@@ -1473,7 +1467,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="21"/>
       <c r="C6" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -1492,15 +1486,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="21"/>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="83"/>
+      <c r="D8" s="88"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="83"/>
+      <c r="F8" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="88"/>
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1519,12 +1513,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="24" t="s">
-        <v>3</v>
+      <c r="F10" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="20"/>
@@ -1541,7 +1535,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="24"/>
@@ -1552,7 +1546,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="24"/>
@@ -1581,7 +1575,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="21"/>
       <c r="C16" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
@@ -1601,7 +1595,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="24"/>
@@ -1612,7 +1606,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="24"/>
@@ -1623,7 +1617,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="24"/>
@@ -1652,7 +1646,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="21"/>
       <c r="C23" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="24"/>
@@ -1672,7 +1666,7 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="24"/>
@@ -1701,7 +1695,7 @@
     <row r="28" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="21"/>
       <c r="C28" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="24"/>
@@ -1720,11 +1714,11 @@
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="82"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="87"/>
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1741,7 +1735,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1IJRox/CO1l5OAs5t8H8vo0TzpEqO6pmdVaZ3pVXj9G4WxWjX1WsNYSHx94QLwJPOLZPtuEcYwV+8CHUXHy02g==" saltValue="Vto/09SnuiwaitCmQWlJ8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="I6HobGcFLhebnnXqM5wop0apBGNVQP1Y2PIWNKR5aQLW5j1UfCCQjze6QP+qjyE3cIm4vzq5iH8JEJiZX4x+vw==" saltValue="2HlfvsipbCDlA5uKLbkUSg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -1778,7 +1772,7 @@
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.85546875" style="103" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" style="83" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="13" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="11" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="48" customWidth="1"/>
@@ -1902,16 +1896,16 @@
       <c r="DF1"/>
     </row>
     <row r="2" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
       <c r="J2" s="54"/>
       <c r="K2" s="54"/>
       <c r="L2" s="54"/>
@@ -2015,129 +2009,129 @@
       <c r="DF2" s="55"/>
     </row>
     <row r="3" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="93"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
       <c r="J3" s="57"/>
-      <c r="K3" s="90" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="91"/>
-      <c r="AH3" s="91"/>
-      <c r="AI3" s="91"/>
-      <c r="AJ3" s="91"/>
-      <c r="AK3" s="91"/>
-      <c r="AL3" s="91"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="91"/>
-      <c r="AR3" s="91"/>
-      <c r="AS3" s="91"/>
-      <c r="AT3" s="91"/>
-      <c r="AU3" s="91"/>
-      <c r="AV3" s="91"/>
-      <c r="AW3" s="91"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="91"/>
-      <c r="BA3" s="91"/>
-      <c r="BB3" s="91"/>
-      <c r="BC3" s="91"/>
-      <c r="BD3" s="91"/>
-      <c r="BE3" s="91"/>
-      <c r="BF3" s="91"/>
-      <c r="BG3" s="91"/>
-      <c r="BH3" s="91"/>
-      <c r="BI3" s="91"/>
-      <c r="BJ3" s="91"/>
-      <c r="BK3" s="91"/>
-      <c r="BL3" s="91"/>
-      <c r="BM3" s="91"/>
-      <c r="BN3" s="91"/>
-      <c r="BO3" s="91"/>
-      <c r="BP3" s="91"/>
-      <c r="BQ3" s="91"/>
-      <c r="BR3" s="91"/>
-      <c r="BS3" s="91"/>
-      <c r="BT3" s="91"/>
-      <c r="BU3" s="91"/>
-      <c r="BV3" s="91"/>
-      <c r="BW3" s="91"/>
-      <c r="BX3" s="91"/>
-      <c r="BY3" s="91"/>
-      <c r="BZ3" s="91"/>
-      <c r="CA3" s="91"/>
-      <c r="CB3" s="91"/>
-      <c r="CC3" s="91"/>
-      <c r="CD3" s="91"/>
-      <c r="CE3" s="91"/>
-      <c r="CF3" s="91"/>
-      <c r="CG3" s="91"/>
-      <c r="CH3" s="91"/>
-      <c r="CI3" s="91"/>
-      <c r="CJ3" s="91"/>
-      <c r="CK3" s="91"/>
-      <c r="CL3" s="91"/>
-      <c r="CM3" s="91"/>
-      <c r="CN3" s="91"/>
-      <c r="CO3" s="91"/>
-      <c r="CP3" s="91"/>
-      <c r="CQ3" s="91"/>
-      <c r="CR3" s="91"/>
-      <c r="CS3" s="91"/>
-      <c r="CT3" s="91"/>
-      <c r="CU3" s="91"/>
-      <c r="CV3" s="91"/>
-      <c r="CW3" s="91"/>
-      <c r="CX3" s="91"/>
-      <c r="CY3" s="91"/>
-      <c r="CZ3" s="91"/>
-      <c r="DA3" s="91"/>
-      <c r="DB3" s="91"/>
-      <c r="DC3" s="91"/>
-      <c r="DD3" s="91"/>
-      <c r="DE3" s="91"/>
-      <c r="DF3" s="92"/>
+      <c r="K3" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="96"/>
+      <c r="AI3" s="96"/>
+      <c r="AJ3" s="96"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="96"/>
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="96"/>
+      <c r="AO3" s="96"/>
+      <c r="AP3" s="96"/>
+      <c r="AQ3" s="96"/>
+      <c r="AR3" s="96"/>
+      <c r="AS3" s="96"/>
+      <c r="AT3" s="96"/>
+      <c r="AU3" s="96"/>
+      <c r="AV3" s="96"/>
+      <c r="AW3" s="96"/>
+      <c r="AX3" s="96"/>
+      <c r="AY3" s="96"/>
+      <c r="AZ3" s="96"/>
+      <c r="BA3" s="96"/>
+      <c r="BB3" s="96"/>
+      <c r="BC3" s="96"/>
+      <c r="BD3" s="96"/>
+      <c r="BE3" s="96"/>
+      <c r="BF3" s="96"/>
+      <c r="BG3" s="96"/>
+      <c r="BH3" s="96"/>
+      <c r="BI3" s="96"/>
+      <c r="BJ3" s="96"/>
+      <c r="BK3" s="96"/>
+      <c r="BL3" s="96"/>
+      <c r="BM3" s="96"/>
+      <c r="BN3" s="96"/>
+      <c r="BO3" s="96"/>
+      <c r="BP3" s="96"/>
+      <c r="BQ3" s="96"/>
+      <c r="BR3" s="96"/>
+      <c r="BS3" s="96"/>
+      <c r="BT3" s="96"/>
+      <c r="BU3" s="96"/>
+      <c r="BV3" s="96"/>
+      <c r="BW3" s="96"/>
+      <c r="BX3" s="96"/>
+      <c r="BY3" s="96"/>
+      <c r="BZ3" s="96"/>
+      <c r="CA3" s="96"/>
+      <c r="CB3" s="96"/>
+      <c r="CC3" s="96"/>
+      <c r="CD3" s="96"/>
+      <c r="CE3" s="96"/>
+      <c r="CF3" s="96"/>
+      <c r="CG3" s="96"/>
+      <c r="CH3" s="96"/>
+      <c r="CI3" s="96"/>
+      <c r="CJ3" s="96"/>
+      <c r="CK3" s="96"/>
+      <c r="CL3" s="96"/>
+      <c r="CM3" s="96"/>
+      <c r="CN3" s="96"/>
+      <c r="CO3" s="96"/>
+      <c r="CP3" s="96"/>
+      <c r="CQ3" s="96"/>
+      <c r="CR3" s="96"/>
+      <c r="CS3" s="96"/>
+      <c r="CT3" s="96"/>
+      <c r="CU3" s="96"/>
+      <c r="CV3" s="96"/>
+      <c r="CW3" s="96"/>
+      <c r="CX3" s="96"/>
+      <c r="CY3" s="96"/>
+      <c r="CZ3" s="96"/>
+      <c r="DA3" s="96"/>
+      <c r="DB3" s="96"/>
+      <c r="DC3" s="96"/>
+      <c r="DD3" s="96"/>
+      <c r="DE3" s="96"/>
+      <c r="DF3" s="97"/>
     </row>
     <row r="4" spans="2:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="53"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
       <c r="J4" s="76" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4" s="60"/>
       <c r="L4" s="61"/>
@@ -2242,15 +2236,15 @@
     </row>
     <row r="5" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="53"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
       <c r="J5" s="77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K5" s="63"/>
       <c r="L5" s="64"/>
@@ -2354,20 +2348,20 @@
       <c r="DF5" s="65"/>
     </row>
     <row r="6" spans="2:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="95" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="96"/>
-      <c r="I6" s="97"/>
+      <c r="B6" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="101"/>
+      <c r="I6" s="102"/>
       <c r="J6" s="75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="63"/>
       <c r="L6" s="64"/>
@@ -2472,31 +2466,31 @@
     </row>
     <row r="7" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="45" t="s">
+      <c r="F7" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="47" t="s">
+      <c r="I7" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="J7" s="78" t="s">
         <v>23</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="78" t="s">
-        <v>25</v>
       </c>
       <c r="K7" s="66"/>
       <c r="L7" s="67"/>
@@ -2601,8 +2595,8 @@
     </row>
     <row r="8" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="14"/>
       <c r="F8" s="16"/>
       <c r="G8" s="38"/>
@@ -2712,8 +2706,8 @@
     </row>
     <row r="9" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="12"/>
       <c r="F9" s="10"/>
       <c r="G9" s="39"/>
@@ -2722,8 +2716,8 @@
     </row>
     <row r="10" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
       <c r="E10" s="12"/>
       <c r="F10" s="10"/>
       <c r="G10" s="39"/>
@@ -2732,8 +2726,8 @@
     </row>
     <row r="11" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="12"/>
       <c r="F11" s="10"/>
       <c r="G11" s="39"/>
@@ -2742,8 +2736,8 @@
     </row>
     <row r="12" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="12"/>
       <c r="F12" s="10"/>
       <c r="G12" s="39"/>
@@ -2752,8 +2746,8 @@
     </row>
     <row r="13" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
       <c r="E13" s="12"/>
       <c r="F13" s="10"/>
       <c r="G13" s="39"/>
@@ -2762,8 +2756,8 @@
     </row>
     <row r="14" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
       <c r="E14" s="12"/>
       <c r="F14" s="10"/>
       <c r="G14" s="39"/>
@@ -2772,8 +2766,8 @@
     </row>
     <row r="15" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="12"/>
       <c r="F15" s="10"/>
       <c r="G15" s="39"/>
@@ -2782,8 +2776,8 @@
     </row>
     <row r="16" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="12"/>
       <c r="F16" s="10"/>
       <c r="G16" s="39"/>
@@ -2792,8 +2786,8 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="12"/>
       <c r="F17" s="10"/>
       <c r="G17" s="39"/>
@@ -2802,8 +2796,8 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
       <c r="E18" s="12"/>
       <c r="F18" s="10"/>
       <c r="G18" s="39"/>
@@ -2812,8 +2806,8 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
       <c r="E19" s="12"/>
       <c r="F19" s="10"/>
       <c r="G19" s="39"/>
@@ -2822,8 +2816,8 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
       <c r="E20" s="12"/>
       <c r="F20" s="10"/>
       <c r="G20" s="39"/>
@@ -2832,8 +2826,8 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="12"/>
       <c r="F21" s="10"/>
       <c r="G21" s="39"/>
@@ -2842,8 +2836,8 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
       <c r="E22" s="12"/>
       <c r="F22" s="10"/>
       <c r="G22" s="39"/>
@@ -2852,8 +2846,8 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="12"/>
       <c r="F23" s="10"/>
       <c r="G23" s="39"/>
@@ -2862,8 +2856,8 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
       <c r="E24" s="12"/>
       <c r="F24" s="10"/>
       <c r="G24" s="39"/>
@@ -2872,8 +2866,8 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="12"/>
       <c r="F25" s="10"/>
       <c r="G25" s="39"/>
@@ -2882,8 +2876,8 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="12"/>
       <c r="F26" s="10"/>
       <c r="G26" s="39"/>
@@ -2892,8 +2886,8 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
       <c r="E27" s="12"/>
       <c r="F27" s="10"/>
       <c r="G27" s="39"/>
@@ -2902,8 +2896,8 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
       <c r="E28" s="12"/>
       <c r="F28" s="10"/>
       <c r="G28" s="39"/>
@@ -2912,8 +2906,8 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
       <c r="E29" s="12"/>
       <c r="F29" s="10"/>
       <c r="G29" s="39"/>
@@ -2922,8 +2916,8 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="12"/>
       <c r="F30" s="10"/>
       <c r="G30" s="39"/>
@@ -2932,8 +2926,8 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
       <c r="E31" s="12"/>
       <c r="F31" s="10"/>
       <c r="G31" s="39"/>
@@ -2942,8 +2936,8 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
       <c r="E32" s="12"/>
       <c r="F32" s="10"/>
       <c r="G32" s="39"/>
@@ -2952,8 +2946,8 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
       <c r="E33" s="12"/>
       <c r="F33" s="10"/>
       <c r="G33" s="39"/>
@@ -2962,8 +2956,8 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
       <c r="E34" s="12"/>
       <c r="F34" s="10"/>
       <c r="G34" s="39"/>
@@ -2972,8 +2966,8 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
       <c r="E35" s="12"/>
       <c r="F35" s="10"/>
       <c r="G35" s="39"/>
@@ -2982,8 +2976,8 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
       <c r="E36" s="12"/>
       <c r="F36" s="10"/>
       <c r="G36" s="39"/>
@@ -2992,8 +2986,8 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
       <c r="E37" s="12"/>
       <c r="F37" s="10"/>
       <c r="G37" s="39"/>
@@ -3002,8 +2996,8 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
       <c r="E38" s="12"/>
       <c r="F38" s="10"/>
       <c r="G38" s="39"/>
@@ -3012,8 +3006,8 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
       <c r="E39" s="12"/>
       <c r="F39" s="10"/>
       <c r="G39" s="39"/>
@@ -3022,8 +3016,8 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
       <c r="E40" s="12"/>
       <c r="F40" s="10"/>
       <c r="G40" s="39"/>
@@ -3032,8 +3026,8 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
       <c r="E41" s="12"/>
       <c r="F41" s="10"/>
       <c r="G41" s="39"/>
@@ -3042,8 +3036,8 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
-      <c r="C42" s="102"/>
-      <c r="D42" s="102"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
       <c r="E42" s="12"/>
       <c r="F42" s="10"/>
       <c r="G42" s="39"/>
@@ -3052,8 +3046,8 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
       <c r="E43" s="12"/>
       <c r="F43" s="10"/>
       <c r="G43" s="39"/>
@@ -3062,8 +3056,8 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
       <c r="E44" s="12"/>
       <c r="F44" s="10"/>
       <c r="G44" s="39"/>
@@ -3072,8 +3066,8 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="102"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
       <c r="E45" s="12"/>
       <c r="F45" s="10"/>
       <c r="G45" s="39"/>
@@ -3082,8 +3076,8 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="102"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
       <c r="E46" s="12"/>
       <c r="F46" s="10"/>
       <c r="G46" s="39"/>
@@ -3092,8 +3086,8 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="102"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
       <c r="E47" s="12"/>
       <c r="F47" s="10"/>
       <c r="G47" s="39"/>
@@ -3102,8 +3096,8 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="102"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
       <c r="E48" s="12"/>
       <c r="F48" s="10"/>
       <c r="G48" s="39"/>
@@ -3112,8 +3106,8 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="102"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
       <c r="E49" s="12"/>
       <c r="F49" s="10"/>
       <c r="G49" s="39"/>
@@ -3122,8 +3116,8 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="102"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
       <c r="E50" s="12"/>
       <c r="F50" s="10"/>
       <c r="G50" s="39"/>
@@ -3132,8 +3126,8 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="102"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
       <c r="E51" s="12"/>
       <c r="F51" s="10"/>
       <c r="G51" s="39"/>
@@ -3142,8 +3136,8 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
       <c r="E52" s="12"/>
       <c r="F52" s="10"/>
       <c r="G52" s="39"/>
@@ -3152,8 +3146,8 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="102"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
       <c r="E53" s="12"/>
       <c r="F53" s="10"/>
       <c r="G53" s="39"/>
@@ -3162,8 +3156,8 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="102"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
       <c r="E54" s="12"/>
       <c r="F54" s="10"/>
       <c r="G54" s="39"/>
@@ -3172,8 +3166,8 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
-      <c r="C55" s="102"/>
-      <c r="D55" s="102"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
       <c r="E55" s="12"/>
       <c r="F55" s="10"/>
       <c r="G55" s="39"/>
@@ -3182,8 +3176,8 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
-      <c r="C56" s="102"/>
-      <c r="D56" s="102"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
       <c r="E56" s="12"/>
       <c r="F56" s="10"/>
       <c r="G56" s="39"/>
@@ -3192,8 +3186,8 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
-      <c r="C57" s="102"/>
-      <c r="D57" s="102"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
       <c r="E57" s="12"/>
       <c r="F57" s="10"/>
       <c r="G57" s="39"/>

--- a/forms/Form-3AA-multiple.xlsx
+++ b/forms/Form-3AA-multiple.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60407FE-FDD0-4CDB-BBD6-EED7CA2059C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4BA7CA-E023-4C3A-B935-A1EB6BBF61B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -760,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1059,6 +1059,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1404,7 +1405,7 @@
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,7 +1518,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="103" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="3"/>
@@ -1735,7 +1736,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="I6HobGcFLhebnnXqM5wop0apBGNVQP1Y2PIWNKR5aQLW5j1UfCCQjze6QP+qjyE3cIm4vzq5iH8JEJiZX4x+vw==" saltValue="2HlfvsipbCDlA5uKLbkUSg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="shkbdKnssuQkyVbfIKXIrigQTvUih7WMy23BHw+ZjumpRSoufEC+zzLwe6yNcRbnAuj1EVmhuBJjB02dHJQr1A==" saltValue="WAN9mFyEOIuw3A3qQlc2Wg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>

--- a/forms/Form-3AA-multiple.xlsx
+++ b/forms/Form-3AA-multiple.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4BA7CA-E023-4C3A-B935-A1EB6BBF61B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A015E76-7399-407E-A81A-B7F72FD0D63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -760,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1059,7 +1059,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1405,7 +1404,7 @@
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,7 +1517,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="103" t="s">
+      <c r="F10" s="24" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="3"/>
